--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1904088.419323951</v>
+        <v>-1906664.740805191</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15205934.51905681</v>
+        <v>15205934.5190568</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>85.17289288835218</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>194.3344304787493</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>60.40473384247876</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>139.0604411098056</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>80.52402110376514</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>235.7835939636772</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>146.8962336074238</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>36.71439411231466</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>204.2614214267905</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>128.1854292229444</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,10 +1297,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>97.49408936989045</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>193.5417083710102</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181936</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>75.21356227238398</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>31.26260713377024</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520914</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>170.8317276803717</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206856</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>156.3923706291105</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2081,10 +2081,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444157</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428251</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,13 +2293,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>34.44047701880672</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>192.7715349547537</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898977</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065883</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261728</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545296</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308917</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002293</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541843</v>
+        <v>116.0100653541845</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652284</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808209</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
-        <v>156.741638509605</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352487</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317884</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445514</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969976</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600552</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796265</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C2" t="n">
-        <v>552.8079389392149</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="D2" t="n">
-        <v>194.5422403324644</v>
+        <v>673.7954257457802</v>
       </c>
       <c r="E2" t="n">
-        <v>108.5090151927147</v>
+        <v>673.7954257457802</v>
       </c>
       <c r="F2" t="n">
-        <v>108.5090151927147</v>
+        <v>262.8095209561727</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,34 +4346,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>529.0179941377679</v>
+        <v>332.773976541745</v>
       </c>
       <c r="C4" t="n">
-        <v>529.0179941377679</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>471.3317757503528</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>646.8594072604492</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>818.1682442902968</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>956.0865935084865</v>
+        <v>956.0865935084897</v>
       </c>
       <c r="P4" t="n">
-        <v>1055.037596261245</v>
+        <v>1055.037596261248</v>
       </c>
       <c r="Q4" t="n">
-        <v>1132.64789241376</v>
+        <v>1132.647892413763</v>
       </c>
       <c r="R4" t="n">
-        <v>1042.817435171288</v>
+        <v>1132.647892413763</v>
       </c>
       <c r="S4" t="n">
-        <v>851.1315509981143</v>
+        <v>1132.647892413763</v>
       </c>
       <c r="T4" t="n">
-        <v>851.1315509981143</v>
+        <v>910.8812769832892</v>
       </c>
       <c r="U4" t="n">
-        <v>710.6664589680076</v>
+        <v>621.7784101089328</v>
       </c>
       <c r="V4" t="n">
-        <v>710.6664589680076</v>
+        <v>621.7784101089328</v>
       </c>
       <c r="W4" t="n">
-        <v>710.6664589680076</v>
+        <v>621.7784101089328</v>
       </c>
       <c r="X4" t="n">
-        <v>710.6664589680076</v>
+        <v>393.7888592109155</v>
       </c>
       <c r="Y4" t="n">
-        <v>710.6664589680076</v>
+        <v>393.7888592109155</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1295.236214140707</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,13 +4565,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3087.440575181215</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2756.377687837644</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.60903256753</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2030.14327430645</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>1681.836054204829</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>775.9570515689412</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="C7" t="n">
-        <v>607.0208686410343</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D7" t="n">
-        <v>607.0208686410343</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>459.1077750586412</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>312.2178275607308</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
         <v>163.8377936138381</v>
@@ -4726,16 +4726,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V7" t="n">
-        <v>1224.739181610489</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W7" t="n">
-        <v>1224.739181610489</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>996.7496307124713</v>
+        <v>866.1004720732717</v>
       </c>
       <c r="Y7" t="n">
-        <v>775.9570515689412</v>
+        <v>829.0152254951761</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1582.86133602681</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.898819086399</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3085.834921597938</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3085.834921597938</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3085.834921597938</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2733.066266327824</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2359.600508066744</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1969.461176090932</v>
+        <v>2141.344278546769</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1042.179465010819</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C10" t="n">
-        <v>873.2432820829119</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>723.1266426705762</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
         <v>477.7578170212613</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1420.200800293314</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1165.516312087427</v>
       </c>
       <c r="W10" t="n">
-        <v>1672.610059882606</v>
+        <v>1165.516312087427</v>
       </c>
       <c r="X10" t="n">
-        <v>1444.620508984588</v>
+        <v>1165.516312087427</v>
       </c>
       <c r="Y10" t="n">
-        <v>1223.827929841058</v>
+        <v>944.7237329438971</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,28 +5051,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636217</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>802.9288273958753</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>633.9926444679684</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>483.8760050556326</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>483.8760050556326</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>336.9860575577222</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>169.7899582726022</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>169.7899582726022</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2415.384692536049</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2126.309465880247</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.62497767436</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.2078076374</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739382</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="14">
@@ -5258,70 +5258,70 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,7 +5452,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
@@ -5461,25 +5461,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235166</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2091.550948547922</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.866460342035</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1547.449290305074</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407057</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756267</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913855</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417938</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972545</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211832</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>251.7887545925279</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168632</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362706</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637309</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890283</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.11872044489</v>
+        <v>1368.15426255076</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684177</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5963,55 +5963,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,7 +6060,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
         <v>95.58405025273905</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,34 +6473,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319304</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656795</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031149999</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.581456494263</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580087</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345448</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438399</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,28 +6643,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518749</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582388</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400514</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,28 +6880,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,7 +7327,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.0944824954149</v>
@@ -7336,25 +7336,25 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,43 +7801,43 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8134,22 +8134,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>8.176919404948023</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>148.5569270723275</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>296.7574771839096</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>216.5872951747041</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>119.4272463394585</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>147.1513970958073</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22768,7 +22768,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>6.052274046181537</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>186.142843193518</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>142.4141550350967</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>115.3527467088724</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>9.131767663158371</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194134</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>6.257951202384504</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>191.2691783702304</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>24.63391537253457</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>3.112177182629239e-12</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82889.1741753762</v>
+        <v>82889.17417537615</v>
       </c>
       <c r="C2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="D2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>100893.3249612508</v>
+        <v>100893.3249612507</v>
       </c>
       <c r="F2" t="n">
         <v>100893.3249612508</v>
@@ -26335,7 +26335,7 @@
         <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="K2" t="n">
         <v>102630.2212330356</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363166</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.439039422777191e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363168</v>
+        <v>19427.71799363181</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3415.825872823299</v>
+        <v>3415.825872823368</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820629</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685497</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685493</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685496</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="K4" t="n">
-        <v>22207.61133994845</v>
+        <v>22207.61133994853</v>
       </c>
       <c r="L4" t="n">
-        <v>22207.61133994847</v>
+        <v>22207.61133994851</v>
       </c>
       <c r="M4" t="n">
+        <v>22207.61133994852</v>
+      </c>
+      <c r="N4" t="n">
         <v>22207.61133994853</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22207.61133994851</v>
       </c>
       <c r="O4" t="n">
         <v>22207.61133994851</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994852</v>
+        <v>22207.61133994853</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1357205.337986433</v>
+        <v>-1357600.158927586</v>
       </c>
       <c r="C6" t="n">
-        <v>-98707.50617656423</v>
+        <v>-98707.50617656416</v>
       </c>
       <c r="D6" t="n">
-        <v>-98707.50617656426</v>
+        <v>-98707.50617656425</v>
       </c>
       <c r="E6" t="n">
-        <v>-339858.4187468671</v>
+        <v>-339893.1566723025</v>
       </c>
       <c r="F6" t="n">
-        <v>-14445.95693951135</v>
+        <v>-14480.69486494709</v>
       </c>
       <c r="G6" t="n">
-        <v>-14445.95693951122</v>
+        <v>-14480.69486494709</v>
       </c>
       <c r="H6" t="n">
-        <v>-14445.95693951134</v>
+        <v>-14480.69486494709</v>
       </c>
       <c r="I6" t="n">
-        <v>-14445.95693951122</v>
+        <v>-14480.69486494706</v>
       </c>
       <c r="J6" t="n">
-        <v>-231977.159336789</v>
+        <v>-232011.8972622245</v>
       </c>
       <c r="K6" t="n">
-        <v>-42169.22395445991</v>
+        <v>-42169.22395446012</v>
       </c>
       <c r="L6" t="n">
-        <v>-22741.50596082842</v>
+        <v>-22741.50596082845</v>
       </c>
       <c r="M6" t="n">
-        <v>-107796.5338963403</v>
+        <v>-107796.5338963404</v>
       </c>
       <c r="N6" t="n">
         <v>-22741.50596082848</v>
       </c>
       <c r="O6" t="n">
-        <v>-22741.50596082858</v>
+        <v>-22741.50596082848</v>
       </c>
       <c r="P6" t="n">
-        <v>-42169.22395446013</v>
+        <v>-42169.22395446028</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="C3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26802,22 +26802,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.298799278471489e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920396</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>284.7488706672424</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>15.21157799522473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>19.1295746516044</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>181.8702592397801</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>161.011470344217</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>75.73254091667579</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>48.93987327667872</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>92.67012983460268</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-3.348081657766396e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.393552105990239e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.835843646654978e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-9.654070646351506e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,28 +31835,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>439.2440297647763</v>
       </c>
       <c r="M12" t="n">
-        <v>491.1355220041049</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31865,7 +31865,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32072,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145765</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175684</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>597.1709559744727</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950807</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,7 +32339,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,37 +32546,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>638.9422653403551</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32707,34 +32707,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>277.4567226539307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>301.644515672456</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M27" t="n">
-        <v>270.948695672725</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>396.9700886943664</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>689.7436082887214</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>332.1692388321073</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>314.105962234273</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>528.6300513467554</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>154.5219885631796</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>177.3006378889863</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>287.8683909290848</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="M12" t="n">
-        <v>349.0014880820866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312432</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902957</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>455.0369220524544</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>37.76383318075048</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>496.3460208959107</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>138.9023428740565</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>159.0482712280115</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M27" t="n">
-        <v>128.8146617507067</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>254.8360547723481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
         <v>144.686904791938</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>547.609574366703</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>189.5729943876629</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>176.264523259914</v>
       </c>
       <c r="L39" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
